--- a/ТВиМС/labs/lab3/Interval_graphics.xlsx
+++ b/ТВиМС/labs/lab3/Interval_graphics.xlsx
@@ -247,10 +247,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,10 +310,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,10 +373,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,11 +391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187238272"/>
-        <c:axId val="187236736"/>
+        <c:axId val="268683520"/>
+        <c:axId val="268689408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187238272"/>
+        <c:axId val="268683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -419,13 +419,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187236736"/>
+        <c:crossAx val="268689408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187236736"/>
+        <c:axId val="268689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -438,7 +438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187238272"/>
+        <c:crossAx val="268683520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -466,13 +466,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>157941</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>20781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>74814</xdr:colOff>
+      <xdr:colOff>99753</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>187035</xdr:rowOff>
     </xdr:to>
@@ -786,7 +786,7 @@
   <dimension ref="D4:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -834,22 +834,22 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
